--- a/excel/Вихідні данні слайд5_7.xlsx
+++ b/excel/Вихідні данні слайд5_7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="таблиця_слайд5_оновлена" sheetId="6" r:id="rId1"/>
@@ -674,13 +674,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -994,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -1008,16 +1008,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -1094,31 +1094,31 @@
         <v>1.1585439629148819</v>
       </c>
       <c r="E7" s="55">
-        <f>((E6-D6)/5)/D6*100</f>
+        <f t="shared" ref="E7:K7" si="0">((E6-D6)/5)/D6*100</f>
         <v>0.5173803381694998</v>
       </c>
       <c r="F7" s="55">
-        <f>((F6-E6)/5)/E6*100</f>
+        <f t="shared" si="0"/>
         <v>0.8898864536572485</v>
       </c>
       <c r="G7" s="55">
-        <f>((G6-F6)/5)/F6*100</f>
+        <f t="shared" si="0"/>
         <v>0.77613449627101505</v>
       </c>
       <c r="H7" s="55">
-        <f>((H6-G6)/5)/G6*100</f>
+        <f t="shared" si="0"/>
         <v>0.67169627646629348</v>
       </c>
       <c r="I7" s="55">
-        <f>((I6-H6)/5)/H6*100</f>
+        <f t="shared" si="0"/>
         <v>0.60748763833294084</v>
       </c>
       <c r="J7" s="55">
-        <f>((J6-I6)/5)/I6*100</f>
+        <f t="shared" si="0"/>
         <v>0.47760511882998169</v>
       </c>
       <c r="K7" s="55">
-        <f>((K6-J6)/5)/J6*100</f>
+        <f t="shared" si="0"/>
         <v>0.41736413346724688</v>
       </c>
     </row>
@@ -1133,31 +1133,31 @@
         <v>75037.186502549754</v>
       </c>
       <c r="E8" s="56">
-        <f>E6*E9</f>
+        <f t="shared" ref="E8:K8" si="1">E6*E9</f>
         <v>96222.905936185765</v>
       </c>
       <c r="F8" s="56">
-        <f>F6*F9</f>
+        <f t="shared" si="1"/>
         <v>125630.34870299142</v>
       </c>
       <c r="G8" s="56">
-        <f>G6*G9</f>
+        <f t="shared" si="1"/>
         <v>163132.06384167352</v>
       </c>
       <c r="H8" s="56">
-        <f>H6*H9</f>
+        <f t="shared" si="1"/>
         <v>210763.52979301152</v>
       </c>
       <c r="I8" s="56">
-        <f>I6*I9</f>
+        <f t="shared" si="1"/>
         <v>271456.67717630632</v>
       </c>
       <c r="J8" s="56">
-        <f>J6*J9</f>
+        <f t="shared" si="1"/>
         <v>347423.91513038176</v>
       </c>
       <c r="K8" s="56">
-        <f>K6*K9</f>
+        <f t="shared" si="1"/>
         <v>443342.53649323911</v>
       </c>
     </row>
@@ -1173,31 +1173,31 @@
         <v>10.163496798118381</v>
       </c>
       <c r="E9" s="50">
-        <f>(D9*E10/100)*5+D9</f>
+        <f t="shared" ref="E9:K9" si="2">(D9*E10/100)*5+D9</f>
         <v>12.704370997647976</v>
       </c>
       <c r="F9" s="50">
-        <f>(E9*F10/100)*5+E9</f>
+        <f t="shared" si="2"/>
         <v>15.88046374705997</v>
       </c>
       <c r="G9" s="50">
-        <f>(F9*G10/100)*5+F9</f>
+        <f t="shared" si="2"/>
         <v>19.850579683824961</v>
       </c>
       <c r="H9" s="50">
-        <f>(G9*H10/100)*5+G9</f>
+        <f t="shared" si="2"/>
         <v>24.813224604781201</v>
       </c>
       <c r="I9" s="50">
-        <f>(H9*I10/100)*5+H9</f>
+        <f t="shared" si="2"/>
         <v>31.0165307559765</v>
       </c>
       <c r="J9" s="50">
-        <f>(I9*J10/100)*5+I9</f>
+        <f t="shared" si="2"/>
         <v>38.770663444970623</v>
       </c>
       <c r="K9" s="50">
-        <f>(J9*K10/100)*5+J9</f>
+        <f t="shared" si="2"/>
         <v>48.463329306213282</v>
       </c>
     </row>
@@ -1276,31 +1276,31 @@
         <v>0.58146074380553159</v>
       </c>
       <c r="E12" s="19">
-        <f>E11/E6*100</f>
+        <f t="shared" ref="E12:K12" si="3">E11/E6*100</f>
         <v>0.55387636171984034</v>
       </c>
       <c r="F12" s="19">
-        <f>F11/F6*100</f>
+        <f t="shared" si="3"/>
         <v>0.51984140174826676</v>
       </c>
       <c r="G12" s="19">
-        <f>G11/G6*100</f>
+        <f t="shared" si="3"/>
         <v>0.4898248570667893</v>
       </c>
       <c r="H12" s="19">
-        <f>H11/H6*100</f>
+        <f t="shared" si="3"/>
         <v>0.46328235070095086</v>
       </c>
       <c r="I12" s="19">
-        <f>I11/I6*100</f>
+        <f t="shared" si="3"/>
         <v>0.4383135698093969</v>
       </c>
       <c r="J12" s="19">
-        <f>J11/J6*100</f>
+        <f t="shared" si="3"/>
         <v>0.41624383703965251</v>
       </c>
       <c r="K12" s="19">
-        <f>K11/K6*100</f>
+        <f t="shared" si="3"/>
         <v>0.39601927481097282</v>
       </c>
     </row>
@@ -1315,31 +1315,31 @@
         <v>91.030959454696102</v>
       </c>
       <c r="E13" s="48">
-        <f>E11*E14</f>
+        <f t="shared" ref="E13:K13" si="4">E11*E14</f>
         <v>138.56854194051698</v>
       </c>
       <c r="F13" s="48">
-        <f>F11*F14</f>
+        <f t="shared" si="4"/>
         <v>182.86199840128251</v>
       </c>
       <c r="G13" s="48">
-        <f>G11*G14</f>
+        <f t="shared" si="4"/>
         <v>231.72780557734845</v>
       </c>
       <c r="H13" s="48">
-        <f>H11*H14</f>
+        <f t="shared" si="4"/>
         <v>292.92907057360873</v>
       </c>
       <c r="I13" s="48">
-        <f>I11*I14</f>
+        <f t="shared" si="4"/>
         <v>368.84775018740595</v>
       </c>
       <c r="J13" s="48">
-        <f>J11*J14</f>
+        <f t="shared" si="4"/>
         <v>462.76180324226777</v>
       </c>
       <c r="K13" s="48">
-        <f>K11*K14</f>
+        <f t="shared" si="4"/>
         <v>561.83100734371146</v>
       </c>
     </row>
@@ -1355,31 +1355,31 @@
         <v>2.12048562859556</v>
       </c>
       <c r="E14" s="50">
-        <f>E9*E15/100</f>
+        <f t="shared" ref="E14:K14" si="5">E9*E15/100</f>
         <v>3.3031364593884733</v>
       </c>
       <c r="F14" s="50">
-        <f>F9*F15/100</f>
+        <f t="shared" si="5"/>
         <v>4.4465298491767919</v>
       </c>
       <c r="G14" s="50">
-        <f>G9*G15/100</f>
+        <f t="shared" si="5"/>
         <v>5.7566681083092384</v>
       </c>
       <c r="H14" s="50">
-        <f>H9*H15/100</f>
+        <f t="shared" si="5"/>
         <v>7.4439673814343594</v>
       </c>
       <c r="I14" s="50">
-        <f>I9*I15/100</f>
+        <f t="shared" si="5"/>
         <v>9.6151245343527147</v>
       </c>
       <c r="J14" s="50">
-        <f>J9*J15/100</f>
+        <f t="shared" si="5"/>
         <v>12.406612302390599</v>
       </c>
       <c r="K14" s="50">
-        <f>K9*K15/100</f>
+        <f t="shared" si="5"/>
         <v>15.50826537798825</v>
       </c>
     </row>
@@ -1427,31 +1427,31 @@
         <v>29.673113000000001</v>
       </c>
       <c r="E16" s="48">
-        <f>E11*E17/100</f>
+        <f t="shared" ref="E16:K16" si="6">E11*E17/100</f>
         <v>28.903960393659233</v>
       </c>
       <c r="F16" s="48">
-        <f>F11*F17/100</f>
+        <f t="shared" si="6"/>
         <v>28.869506611198382</v>
       </c>
       <c r="G16" s="48">
-        <f>G11*G17/100</f>
+        <f t="shared" si="6"/>
         <v>28.378933761392869</v>
       </c>
       <c r="H16" s="48">
-        <f>H11*H17/100</f>
+        <f t="shared" si="6"/>
         <v>27.860651630925446</v>
       </c>
       <c r="I16" s="48">
-        <f>I11*I17/100</f>
+        <f t="shared" si="6"/>
         <v>27.274815780729792</v>
       </c>
       <c r="J16" s="48">
-        <f>J11*J17/100</f>
+        <f t="shared" si="6"/>
         <v>26.631921709306013</v>
       </c>
       <c r="K16" s="48">
-        <f>K11*K17/100</f>
+        <f t="shared" si="6"/>
         <v>25.97536361721049</v>
       </c>
     </row>
@@ -1531,31 +1531,31 @@
         <v>3.3154513730925671E-2</v>
       </c>
       <c r="E19" s="45">
-        <f>E18/E11*100</f>
+        <f t="shared" ref="E19:K19" si="7">E18/E11*100</f>
         <v>0.14639124681779711</v>
       </c>
       <c r="F19" s="45">
-        <f>F18/F11*100</f>
+        <f t="shared" si="7"/>
         <v>0.14933135013563864</v>
       </c>
       <c r="G19" s="45">
-        <f>G18/G11*100</f>
+        <f t="shared" si="7"/>
         <v>0.15256196855041751</v>
       </c>
       <c r="H19" s="45">
-        <f>H18/H11*100</f>
+        <f t="shared" si="7"/>
         <v>0.15606130314531966</v>
       </c>
       <c r="I19" s="45">
-        <f>I18/I11*100</f>
+        <f t="shared" si="7"/>
         <v>0.16008882461765128</v>
       </c>
       <c r="J19" s="45">
-        <f>J18/J11*100</f>
+        <f t="shared" si="7"/>
         <v>0.16464515207957414</v>
       </c>
       <c r="K19" s="45">
-        <f>K18/K11*100</f>
+        <f t="shared" si="7"/>
         <v>0.1695160254496898</v>
       </c>
     </row>
@@ -1603,31 +1603,31 @@
         <v>22.889025578755099</v>
       </c>
       <c r="E21" s="36">
-        <f>E20/E11*100</f>
+        <f t="shared" ref="E21:K21" si="8">E20/E11*100</f>
         <v>22.045366945505968</v>
       </c>
       <c r="F21" s="36">
-        <f>F20/F11*100</f>
+        <f t="shared" si="8"/>
         <v>21.07776715369064</v>
       </c>
       <c r="G21" s="36">
-        <f>G20/G11*100</f>
+        <f t="shared" si="8"/>
         <v>20.472501525728138</v>
       </c>
       <c r="H21" s="36">
-        <f>H20/H11*100</f>
+        <f t="shared" si="8"/>
         <v>19.374499998303499</v>
       </c>
       <c r="I21" s="36">
-        <f>I20/I11*100</f>
+        <f t="shared" si="8"/>
         <v>17.717924072486525</v>
       </c>
       <c r="J21" s="36">
-        <f>J20/J11*100</f>
+        <f t="shared" si="8"/>
         <v>16.856335758538695</v>
       </c>
       <c r="K21" s="36">
-        <f>K20/K11*100</f>
+        <f t="shared" si="8"/>
         <v>16.659297811722304</v>
       </c>
     </row>
@@ -1675,31 +1675,31 @@
         <v>17.73777898720822</v>
       </c>
       <c r="E23" s="27">
-        <f>E22/E11*100</f>
+        <f t="shared" ref="E23:K23" si="9">E22/E11*100</f>
         <v>18.136295196594819</v>
       </c>
       <c r="F23" s="27">
-        <f>F22/F11*100</f>
+        <f t="shared" si="9"/>
         <v>17.774637815378519</v>
       </c>
       <c r="G23" s="27">
-        <f>G22/G11*100</f>
+        <f t="shared" si="9"/>
         <v>16.292555728082515</v>
       </c>
       <c r="H23" s="27">
-        <f>H22/H11*100</f>
+        <f t="shared" si="9"/>
         <v>14.821854769311688</v>
       </c>
       <c r="I23" s="27">
-        <f>I22/I11*100</f>
+        <f t="shared" si="9"/>
         <v>14.181270076968804</v>
       </c>
       <c r="J23" s="27">
-        <f>J22/J11*100</f>
+        <f t="shared" si="9"/>
         <v>13.471555625498285</v>
       </c>
       <c r="K23" s="27">
-        <f>K22/K11*100</f>
+        <f t="shared" si="9"/>
         <v>12.753068297576577</v>
       </c>
     </row>
@@ -1715,31 +1715,31 @@
         <v>0.77494688125439004</v>
       </c>
       <c r="E24" s="27">
-        <f>E22/E20</f>
+        <f t="shared" ref="E24:K24" si="10">E22/E20</f>
         <v>0.8226805768951817</v>
       </c>
       <c r="F24" s="27">
-        <f>F22/F20</f>
+        <f t="shared" si="10"/>
         <v>0.84328846057426166</v>
       </c>
       <c r="G24" s="27">
-        <f>G22/G20</f>
+        <f t="shared" si="10"/>
         <v>0.79582632867836833</v>
       </c>
       <c r="H24" s="27">
-        <f>H22/H20</f>
+        <f t="shared" si="10"/>
         <v>0.76501869832044922</v>
       </c>
       <c r="I24" s="27">
-        <f>I22/I20</f>
+        <f t="shared" si="10"/>
         <v>0.80039117556612327</v>
       </c>
       <c r="J24" s="27">
-        <f>J22/J20</f>
+        <f t="shared" si="10"/>
         <v>0.79919834408104828</v>
       </c>
       <c r="K24" s="27">
-        <f>K22/K20</f>
+        <f t="shared" si="10"/>
         <v>0.76552255933637792</v>
       </c>
     </row>
@@ -1755,31 +1755,31 @@
         <v>0.41178100000000001</v>
       </c>
       <c r="E25" s="29">
-        <f>E20*E26/1000*0.9938</f>
+        <f t="shared" ref="E25:K25" si="11">E20*E26/1000*0.9938</f>
         <v>0.34860795943732287</v>
       </c>
       <c r="F25" s="29">
-        <f>F20*F26/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.32674480191438748</v>
       </c>
       <c r="G25" s="29">
-        <f>G20*G26/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.31064166450322894</v>
       </c>
       <c r="H25" s="29">
-        <f>H20*H26/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.28738913863157767</v>
       </c>
       <c r="I25" s="29">
-        <f>I20*I26/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.25620458443674082</v>
       </c>
       <c r="J25" s="29">
-        <f>J20*J26/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.23700052175259817</v>
       </c>
       <c r="K25" s="29">
-        <f>K20*K26/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.22749979370531981</v>
       </c>
     </row>
@@ -1827,25 +1827,25 @@
       <c r="D27" s="24">
         <v>16.555828999999999</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="60">
         <v>15.63905917754489</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="60">
         <v>14.793515717226709</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="60">
         <v>14.687971455199969</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="60">
         <v>14.60286560806963</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="60">
         <v>14.157782298953171</v>
       </c>
-      <c r="J27" s="61">
+      <c r="J27" s="60">
         <v>13.048016879018981</v>
       </c>
-      <c r="K27" s="61">
+      <c r="K27" s="60">
         <v>11.42351823907844</v>
       </c>
     </row>
@@ -1860,31 +1860,31 @@
         <v>38.565338291811798</v>
       </c>
       <c r="E28" s="21">
-        <f>E27/E11*100</f>
+        <f t="shared" ref="E28:K28" si="12">E27/E11*100</f>
         <v>37.279707094022491</v>
       </c>
       <c r="F28" s="21">
-        <f>F27/F11*100</f>
+        <f t="shared" si="12"/>
         <v>35.972377960435345</v>
       </c>
       <c r="G28" s="21">
-        <f>G27/G11*100</f>
+        <f t="shared" si="12"/>
         <v>36.488403556595578</v>
       </c>
       <c r="H28" s="21">
-        <f>H27/H11*100</f>
+        <f t="shared" si="12"/>
         <v>37.109070482174772</v>
       </c>
       <c r="I28" s="21">
-        <f>I27/I11*100</f>
+        <f t="shared" si="12"/>
         <v>36.906512203347916</v>
       </c>
       <c r="J28" s="21">
-        <f>J27/J11*100</f>
+        <f t="shared" si="12"/>
         <v>34.981644033461386</v>
       </c>
       <c r="K28" s="21">
-        <f>K27/K11*100</f>
+        <f t="shared" si="12"/>
         <v>31.532427026324118</v>
       </c>
     </row>
@@ -1932,31 +1932,31 @@
         <v>20.41270276537017</v>
       </c>
       <c r="E30" s="10">
-        <f>E29/E11*100</f>
+        <f t="shared" ref="E30:K30" si="13">E29/E11*100</f>
         <v>22.538630763876736</v>
       </c>
       <c r="F30" s="10">
-        <f>F29/F11*100</f>
+        <f t="shared" si="13"/>
         <v>25.175217070495492</v>
       </c>
       <c r="G30" s="10">
-        <f>G29/G11*100</f>
+        <f t="shared" si="13"/>
         <v>26.746539189593715</v>
       </c>
       <c r="H30" s="10">
-        <f>H29/H11*100</f>
+        <f t="shared" si="13"/>
         <v>28.694574750210034</v>
       </c>
       <c r="I30" s="10">
-        <f>I29/I11*100</f>
+        <f t="shared" si="13"/>
         <v>31.194293647196748</v>
       </c>
       <c r="J30" s="10">
-        <f>J29/J11*100</f>
+        <f t="shared" si="13"/>
         <v>34.690464582501633</v>
       </c>
       <c r="K30" s="10">
-        <f>K29/K11*100</f>
+        <f t="shared" si="13"/>
         <v>39.055206864376999</v>
       </c>
     </row>
@@ -1972,31 +1972,31 @@
         <v>0.59479599999999999</v>
       </c>
       <c r="E31" s="12">
-        <f>E32/1000*E11</f>
+        <f t="shared" ref="E31:K31" si="14">E32/1000*E11</f>
         <v>0.61247869629524632</v>
       </c>
       <c r="F31" s="12">
-        <f>F32/1000*F11</f>
+        <f t="shared" si="14"/>
         <v>0.60041993806765859</v>
       </c>
       <c r="G31" s="12">
-        <f>G32/1000*G11</f>
+        <f t="shared" si="14"/>
         <v>0.58770557860473172</v>
       </c>
       <c r="H31" s="12">
-        <f>H32/1000*H11</f>
+        <f t="shared" si="14"/>
         <v>0.574527561880666</v>
       </c>
       <c r="I31" s="12">
-        <f>I32/1000*I11</f>
+        <f t="shared" si="14"/>
         <v>0.56007357299388894</v>
       </c>
       <c r="J31" s="12">
-        <f>J32/1000*J11</f>
+        <f t="shared" si="14"/>
         <v>0.54457430946199958</v>
       </c>
       <c r="K31" s="12">
-        <f>K32/1000*K11</f>
+        <f t="shared" si="14"/>
         <v>0.52892651159173387</v>
       </c>
     </row>
@@ -2011,31 +2011,31 @@
         <v>14.9</v>
       </c>
       <c r="E32" s="9">
-        <f>14.6</f>
+        <f t="shared" ref="E32:K32" si="15">14.6</f>
         <v>14.6</v>
       </c>
       <c r="F32" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="G32" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="H32" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="I32" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="J32" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="K32" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
     </row>
@@ -2066,16 +2066,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -2152,31 +2152,31 @@
         <v>1.1585439629148819</v>
       </c>
       <c r="E7" s="55">
-        <f>((E6-D6)/5)/D6*100</f>
+        <f t="shared" ref="E7:K7" si="0">((E6-D6)/5)/D6*100</f>
         <v>0.5173803381694998</v>
       </c>
       <c r="F7" s="55">
-        <f>((F6-E6)/5)/E6*100</f>
+        <f t="shared" si="0"/>
         <v>0.8898864536572485</v>
       </c>
       <c r="G7" s="55">
-        <f>((G6-F6)/5)/F6*100</f>
+        <f t="shared" si="0"/>
         <v>0.77613449627101505</v>
       </c>
       <c r="H7" s="55">
-        <f>((H6-G6)/5)/G6*100</f>
+        <f t="shared" si="0"/>
         <v>0.67169627646629348</v>
       </c>
       <c r="I7" s="55">
-        <f>((I6-H6)/5)/H6*100</f>
+        <f t="shared" si="0"/>
         <v>0.60748763833294084</v>
       </c>
       <c r="J7" s="55">
-        <f>((J6-I6)/5)/I6*100</f>
+        <f t="shared" si="0"/>
         <v>0.47760511882998169</v>
       </c>
       <c r="K7" s="55">
-        <f>((K6-J6)/5)/J6*100</f>
+        <f t="shared" si="0"/>
         <v>0.41736413346724688</v>
       </c>
     </row>
@@ -2191,31 +2191,31 @@
         <v>75037.186502549754</v>
       </c>
       <c r="E8" s="56">
-        <f>E6*E9</f>
+        <f t="shared" ref="E8:K8" si="1">E6*E9</f>
         <v>96222.905936185765</v>
       </c>
       <c r="F8" s="56">
-        <f>F6*F9</f>
+        <f t="shared" si="1"/>
         <v>125630.34870299142</v>
       </c>
       <c r="G8" s="56">
-        <f>G6*G9</f>
+        <f t="shared" si="1"/>
         <v>163132.06384167352</v>
       </c>
       <c r="H8" s="56">
-        <f>H6*H9</f>
+        <f t="shared" si="1"/>
         <v>210763.52979301152</v>
       </c>
       <c r="I8" s="56">
-        <f>I6*I9</f>
+        <f t="shared" si="1"/>
         <v>271456.67717630632</v>
       </c>
       <c r="J8" s="56">
-        <f>J6*J9</f>
+        <f t="shared" si="1"/>
         <v>347423.91513038176</v>
       </c>
       <c r="K8" s="56">
-        <f>K6*K9</f>
+        <f t="shared" si="1"/>
         <v>443342.53649323911</v>
       </c>
     </row>
@@ -2231,31 +2231,31 @@
         <v>10.163496798118381</v>
       </c>
       <c r="E9" s="50">
-        <f>(D9*E10/100)*5+D9</f>
+        <f t="shared" ref="E9:K9" si="2">(D9*E10/100)*5+D9</f>
         <v>12.704370997647976</v>
       </c>
       <c r="F9" s="50">
-        <f>(E9*F10/100)*5+E9</f>
+        <f t="shared" si="2"/>
         <v>15.88046374705997</v>
       </c>
       <c r="G9" s="50">
-        <f>(F9*G10/100)*5+F9</f>
+        <f t="shared" si="2"/>
         <v>19.850579683824961</v>
       </c>
       <c r="H9" s="50">
-        <f>(G9*H10/100)*5+G9</f>
+        <f t="shared" si="2"/>
         <v>24.813224604781201</v>
       </c>
       <c r="I9" s="50">
-        <f>(H9*I10/100)*5+H9</f>
+        <f t="shared" si="2"/>
         <v>31.0165307559765</v>
       </c>
       <c r="J9" s="50">
-        <f>(I9*J10/100)*5+I9</f>
+        <f t="shared" si="2"/>
         <v>38.770663444970623</v>
       </c>
       <c r="K9" s="50">
-        <f>(J9*K10/100)*5+J9</f>
+        <f t="shared" si="2"/>
         <v>48.463329306213282</v>
       </c>
     </row>
@@ -2334,31 +2334,31 @@
         <v>0.58146074380553159</v>
       </c>
       <c r="E12" s="19">
-        <f>E11/E6*100</f>
+        <f t="shared" ref="E12:K12" si="3">E11/E6*100</f>
         <v>0.56054048189945038</v>
       </c>
       <c r="F12" s="19">
-        <f>F11/F6*100</f>
+        <f t="shared" si="3"/>
         <v>0.55567238527027085</v>
       </c>
       <c r="G12" s="19">
-        <f>G11/G6*100</f>
+        <f t="shared" si="3"/>
         <v>0.55087076498910259</v>
       </c>
       <c r="H12" s="19">
-        <f>H11/H6*100</f>
+        <f t="shared" si="3"/>
         <v>0.54504331810087958</v>
       </c>
       <c r="I12" s="19">
-        <f>I11/I6*100</f>
+        <f t="shared" si="3"/>
         <v>0.53681302674710218</v>
       </c>
       <c r="J12" s="19">
-        <f>J11/J6*100</f>
+        <f t="shared" si="3"/>
         <v>0.53308990938421863</v>
       </c>
       <c r="K12" s="19">
-        <f>K11/K6*100</f>
+        <f t="shared" si="3"/>
         <v>0.53423871434112447</v>
       </c>
     </row>
@@ -2373,31 +2373,31 @@
         <v>91.030959454696102</v>
       </c>
       <c r="E13" s="48">
-        <f>E11*E14</f>
+        <f t="shared" ref="E13:K13" si="4">E11*E14</f>
         <v>140.2357685644111</v>
       </c>
       <c r="F13" s="48">
-        <f>F11*F14</f>
+        <f t="shared" si="4"/>
         <v>195.46608347315595</v>
       </c>
       <c r="G13" s="48">
-        <f>G11*G14</f>
+        <f t="shared" si="4"/>
         <v>260.60758592787005</v>
       </c>
       <c r="H13" s="48">
-        <f>H11*H14</f>
+        <f t="shared" si="4"/>
         <v>344.62576083910972</v>
       </c>
       <c r="I13" s="48">
-        <f>I11*I14</f>
+        <f t="shared" si="4"/>
         <v>451.73658956774443</v>
       </c>
       <c r="J13" s="48">
-        <f>J11*J14</f>
+        <f t="shared" si="4"/>
         <v>592.66618699125013</v>
       </c>
       <c r="K13" s="48">
-        <f>K11*K14</f>
+        <f t="shared" si="4"/>
         <v>757.92238946841962</v>
       </c>
     </row>
@@ -2413,31 +2413,31 @@
         <v>2.12048562859556</v>
       </c>
       <c r="E14" s="50">
-        <f>E9*E15/100</f>
+        <f t="shared" ref="E14:K14" si="5">E9*E15/100</f>
         <v>3.3031364593884733</v>
       </c>
       <c r="F14" s="50">
-        <f>F9*F15/100</f>
+        <f t="shared" si="5"/>
         <v>4.4465298491767919</v>
       </c>
       <c r="G14" s="50">
-        <f>G9*G15/100</f>
+        <f t="shared" si="5"/>
         <v>5.7566681083092384</v>
       </c>
       <c r="H14" s="50">
-        <f>H9*H15/100</f>
+        <f t="shared" si="5"/>
         <v>7.4439673814343594</v>
       </c>
       <c r="I14" s="50">
-        <f>I9*I15/100</f>
+        <f t="shared" si="5"/>
         <v>9.6151245343527147</v>
       </c>
       <c r="J14" s="50">
-        <f>J9*J15/100</f>
+        <f t="shared" si="5"/>
         <v>12.406612302390599</v>
       </c>
       <c r="K14" s="50">
-        <f>K9*K15/100</f>
+        <f t="shared" si="5"/>
         <v>15.50826537798825</v>
       </c>
     </row>
@@ -2485,31 +2485,31 @@
         <v>29.673113000000001</v>
       </c>
       <c r="E16" s="48">
-        <f>E11*E17/100</f>
+        <f t="shared" ref="E16:K16" si="6">E11*E17/100</f>
         <v>29.25172657225535</v>
       </c>
       <c r="F16" s="48">
-        <f>F11*F17/100</f>
+        <f t="shared" si="6"/>
         <v>30.859388163909252</v>
       </c>
       <c r="G16" s="48">
-        <f>G11*G17/100</f>
+        <f t="shared" si="6"/>
         <v>31.915744424097138</v>
       </c>
       <c r="H16" s="48">
-        <f>H11*H17/100</f>
+        <f t="shared" si="6"/>
         <v>32.777553443158006</v>
       </c>
       <c r="I16" s="48">
-        <f>I11*I17/100</f>
+        <f t="shared" si="6"/>
         <v>33.404113907744438</v>
       </c>
       <c r="J16" s="48">
-        <f>J11*J17/100</f>
+        <f t="shared" si="6"/>
         <v>34.10791336086276</v>
       </c>
       <c r="K16" s="48">
-        <f>K11*K17/100</f>
+        <f t="shared" si="6"/>
         <v>35.041336990542987</v>
       </c>
     </row>
@@ -2589,31 +2589,31 @@
         <v>3.3154513730925671E-2</v>
       </c>
       <c r="E19" s="45">
-        <f>E18/E11*100</f>
+        <f t="shared" ref="E19:K19" si="7">E18/E11*100</f>
         <v>0.14465083931193612</v>
       </c>
       <c r="F19" s="45">
-        <f>F18/F11*100</f>
+        <f t="shared" si="7"/>
         <v>0.13970213463408696</v>
       </c>
       <c r="G19" s="45">
-        <f>G18/G11*100</f>
+        <f t="shared" si="7"/>
         <v>0.1356554916115662</v>
       </c>
       <c r="H19" s="45">
-        <f>H18/H11*100</f>
+        <f t="shared" si="7"/>
         <v>0.13265082787646545</v>
       </c>
       <c r="I19" s="45">
-        <f>I18/I11*100</f>
+        <f t="shared" si="7"/>
         <v>0.13071423514059122</v>
       </c>
       <c r="J19" s="45">
-        <f>J18/J11*100</f>
+        <f t="shared" si="7"/>
         <v>0.1285571695227587</v>
       </c>
       <c r="K19" s="45">
-        <f>K18/K11*100</f>
+        <f t="shared" si="7"/>
         <v>0.12565845878507301</v>
       </c>
     </row>
@@ -2661,31 +2661,31 @@
         <v>22.889025578755099</v>
       </c>
       <c r="E21" s="36">
-        <f>E20/E11*100</f>
+        <f t="shared" ref="E21:K21" si="8">E20/E11*100</f>
         <v>21.783228547947573</v>
       </c>
       <c r="F21" s="36">
-        <f>F20/F11*100</f>
+        <f t="shared" si="8"/>
         <v>19.717785851985873</v>
       </c>
       <c r="G21" s="36">
-        <f>G20/G11*100</f>
+        <f t="shared" si="8"/>
         <v>18.203079419426356</v>
       </c>
       <c r="H21" s="36">
-        <f>H20/H11*100</f>
+        <f t="shared" si="8"/>
         <v>16.470386044397216</v>
       </c>
       <c r="I21" s="36">
-        <f>I20/I11*100</f>
+        <f t="shared" si="8"/>
         <v>15.923508206592535</v>
       </c>
       <c r="J21" s="36">
-        <f>J20/J11*100</f>
+        <f t="shared" si="8"/>
         <v>17.114984399833308</v>
       </c>
       <c r="K21" s="36">
-        <f>K20/K11*100</f>
+        <f t="shared" si="8"/>
         <v>18.552193022448606</v>
       </c>
     </row>
@@ -2733,31 +2733,31 @@
         <v>17.73777898720822</v>
       </c>
       <c r="E23" s="27">
-        <f>E22/E11*100</f>
+        <f t="shared" ref="E23:K23" si="9">E22/E11*100</f>
         <v>19.115552237349043</v>
       </c>
       <c r="F23" s="27">
-        <f>F22/F11*100</f>
+        <f t="shared" si="9"/>
         <v>23.276227756744156</v>
       </c>
       <c r="G23" s="27">
-        <f>G22/G11*100</f>
+        <f t="shared" si="9"/>
         <v>26.259338134184802</v>
       </c>
       <c r="H23" s="27">
-        <f>H22/H11*100</f>
+        <f t="shared" si="9"/>
         <v>29.030879043061823</v>
       </c>
       <c r="I23" s="27">
-        <f>I22/I11*100</f>
+        <f t="shared" si="9"/>
         <v>29.312353117230494</v>
       </c>
       <c r="J23" s="27">
-        <f>J22/J11*100</f>
+        <f t="shared" si="9"/>
         <v>27.800985134294105</v>
       </c>
       <c r="K23" s="27">
-        <f>K22/K11*100</f>
+        <f t="shared" si="9"/>
         <v>27.362896064635457</v>
       </c>
     </row>
@@ -2773,31 +2773,31 @@
         <v>0.77494688125439004</v>
       </c>
       <c r="E24" s="27">
-        <f>E22/E20</f>
+        <f t="shared" ref="E24:K24" si="10">E22/E20</f>
         <v>0.87753531095142101</v>
       </c>
       <c r="F24" s="27">
-        <f>F22/F20</f>
+        <f t="shared" si="10"/>
         <v>1.1804686353462903</v>
       </c>
       <c r="G24" s="27">
-        <f>G22/G20</f>
+        <f t="shared" si="10"/>
         <v>1.4425766942576099</v>
       </c>
       <c r="H24" s="27">
-        <f>H22/H20</f>
+        <f t="shared" si="10"/>
         <v>1.7626107223477834</v>
       </c>
       <c r="I24" s="27">
-        <f>I22/I20</f>
+        <f t="shared" si="10"/>
         <v>1.8408225585047149</v>
       </c>
       <c r="J24" s="27">
-        <f>J22/J20</f>
+        <f t="shared" si="10"/>
         <v>1.6243652044792325</v>
       </c>
       <c r="K24" s="27">
-        <f>K22/K20</f>
+        <f t="shared" si="10"/>
         <v>1.4749143689657433</v>
       </c>
     </row>
@@ -2813,31 +2813,31 @@
         <v>0.41178100000000001</v>
       </c>
       <c r="E25" s="29">
-        <f>E20*E26/1000*0.9938</f>
+        <f t="shared" ref="E25:K25" si="11">E20*E26/1000*0.9938</f>
         <v>0.64335630851241943</v>
       </c>
       <c r="F25" s="29">
-        <f>F20*F26/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.81833465355709167</v>
       </c>
       <c r="G25" s="29">
-        <f>G20*G26/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.77800667532811019</v>
       </c>
       <c r="H25" s="29">
-        <f>H20*H26/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.71989582145813513</v>
       </c>
       <c r="I25" s="29">
-        <f>I20*I26/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.70630407022514008</v>
       </c>
       <c r="J25" s="29">
-        <f>J20*J26/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.77189111989075265</v>
       </c>
       <c r="K25" s="29">
-        <f>K20*K26/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.85601103716613525</v>
       </c>
     </row>
@@ -2885,25 +2885,25 @@
       <c r="D27" s="24">
         <v>16.555828999999999</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="60">
         <v>15.638642279299241</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="60">
         <v>14.781160738699169</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="60">
         <v>14.65055119725225</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="60">
         <v>14.536036153429411</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="60">
         <v>14.79406206478674</v>
       </c>
-      <c r="J27" s="61">
+      <c r="J27" s="60">
         <v>14.94874618060607</v>
       </c>
-      <c r="K27" s="61">
+      <c r="K27" s="60">
         <v>14.524355405205331</v>
       </c>
     </row>
@@ -2918,31 +2918,31 @@
         <v>38.565338291811798</v>
       </c>
       <c r="E28" s="21">
-        <f>E27/E11*100</f>
+        <f t="shared" ref="E28:K28" si="12">E27/E11*100</f>
         <v>36.835516371389382</v>
       </c>
       <c r="F28" s="21">
-        <f>F27/F11*100</f>
+        <f t="shared" si="12"/>
         <v>33.624693994102643</v>
       </c>
       <c r="G28" s="21">
-        <f>G27/G11*100</f>
+        <f t="shared" si="12"/>
         <v>32.362204862953071</v>
       </c>
       <c r="H28" s="21">
-        <f>H27/H11*100</f>
+        <f t="shared" si="12"/>
         <v>31.398052983043112</v>
       </c>
       <c r="I28" s="21">
-        <f>I27/I11*100</f>
+        <f t="shared" si="12"/>
         <v>31.488870374210808</v>
       </c>
       <c r="J28" s="21">
-        <f>J27/J11*100</f>
+        <f t="shared" si="12"/>
         <v>31.293045282564748</v>
       </c>
       <c r="K28" s="21">
-        <f>K27/K11*100</f>
+        <f t="shared" si="12"/>
         <v>29.719079578335606</v>
       </c>
     </row>
@@ -2990,31 +2990,31 @@
         <v>20.41270276537017</v>
       </c>
       <c r="E30" s="10">
-        <f>E29/E11*100</f>
+        <f t="shared" ref="E30:K30" si="13">E29/E11*100</f>
         <v>22.265702843314024</v>
       </c>
       <c r="F30" s="10">
-        <f>F29/F11*100</f>
+        <f t="shared" si="13"/>
         <v>23.381292397167329</v>
       </c>
       <c r="G30" s="10">
-        <f>G29/G11*100</f>
+        <f t="shared" si="13"/>
         <v>23.17537758343575</v>
       </c>
       <c r="H30" s="10">
-        <f>H29/H11*100</f>
+        <f t="shared" si="13"/>
         <v>23.100681929497874</v>
       </c>
       <c r="I30" s="10">
-        <f>I29/I11*100</f>
+        <f t="shared" si="13"/>
         <v>23.275268301966204</v>
       </c>
       <c r="J30" s="10">
-        <f>J29/J11*100</f>
+        <f t="shared" si="13"/>
         <v>23.790985183307846</v>
       </c>
       <c r="K30" s="10">
-        <f>K29/K11*100</f>
+        <f t="shared" si="13"/>
         <v>24.365831334580335</v>
       </c>
     </row>
@@ -3030,31 +3030,31 @@
         <v>0.59479599999999999</v>
       </c>
       <c r="E31" s="12">
-        <f>E32/1000*E11</f>
+        <f t="shared" ref="E31:K31" si="14">E32/1000*E11</f>
         <v>0.61984790704633974</v>
       </c>
       <c r="F31" s="12">
-        <f>F32/1000*F11</f>
+        <f t="shared" si="14"/>
         <v>0.64180493902147451</v>
       </c>
       <c r="G31" s="12">
-        <f>G32/1000*G11</f>
+        <f t="shared" si="14"/>
         <v>0.66095016821534502</v>
       </c>
       <c r="H31" s="12">
-        <f>H32/1000*H11</f>
+        <f t="shared" si="14"/>
         <v>0.67592129981653515</v>
       </c>
       <c r="I31" s="12">
-        <f>I32/1000*I11</f>
+        <f t="shared" si="14"/>
         <v>0.6859353910732332</v>
       </c>
       <c r="J31" s="12">
-        <f>J32/1000*J11</f>
+        <f t="shared" si="14"/>
         <v>0.69744472698682958</v>
       </c>
       <c r="K31" s="12">
-        <f>K32/1000*K11</f>
+        <f t="shared" si="14"/>
         <v>0.71353350078372058</v>
       </c>
     </row>
@@ -3069,31 +3069,31 @@
         <v>14.9</v>
       </c>
       <c r="E32" s="9">
-        <f>14.6</f>
+        <f t="shared" ref="E32:K32" si="15">14.6</f>
         <v>14.6</v>
       </c>
       <c r="F32" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="G32" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="H32" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="I32" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="J32" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="K32" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
     </row>
@@ -14002,8 +14002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14442,7 +14442,7 @@
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="59" t="s">
         <v>87</v>
       </c>
     </row>
@@ -14671,16 +14671,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -14754,35 +14754,35 @@
         <v>1.18</v>
       </c>
       <c r="D7" s="55">
-        <f>((D6-C6)/5)/C6*100</f>
+        <f t="shared" ref="D7:K7" si="0">((D6-C6)/5)/C6*100</f>
         <v>1.1431921442180859</v>
       </c>
       <c r="E7" s="55">
-        <f>((E6-D6)/5)/D6*100</f>
+        <f t="shared" si="0"/>
         <v>1.0009704699847497</v>
       </c>
       <c r="F7" s="55">
-        <f>((F6-E6)/5)/E6*100</f>
+        <f t="shared" si="0"/>
         <v>0.8898864536572485</v>
       </c>
       <c r="G7" s="55">
-        <f>((G6-F6)/5)/F6*100</f>
+        <f t="shared" si="0"/>
         <v>0.77613449627101505</v>
       </c>
       <c r="H7" s="55">
-        <f>((H6-G6)/5)/G6*100</f>
+        <f t="shared" si="0"/>
         <v>0.67169627646629348</v>
       </c>
       <c r="I7" s="55">
-        <f>((I6-H6)/5)/H6*100</f>
+        <f t="shared" si="0"/>
         <v>0.60748763833294084</v>
       </c>
       <c r="J7" s="55">
-        <f>((J6-I6)/5)/I6*100</f>
+        <f t="shared" si="0"/>
         <v>0.47760511882998169</v>
       </c>
       <c r="K7" s="55">
-        <f>((K6-J6)/5)/J6*100</f>
+        <f t="shared" si="0"/>
         <v>0.41736413346724688</v>
       </c>
     </row>
@@ -14794,35 +14794,35 @@
         <v>64074.6</v>
       </c>
       <c r="D8" s="56">
-        <f>D6*D9</f>
+        <f t="shared" ref="D8:K8" si="1">D6*D9</f>
         <v>84671.348710244754</v>
       </c>
       <c r="E8" s="56">
-        <f>E6*E9</f>
+        <f t="shared" si="1"/>
         <v>111136.28086985197</v>
       </c>
       <c r="F8" s="56">
-        <f>F6*F9</f>
+        <f t="shared" si="1"/>
         <v>145101.51801581049</v>
       </c>
       <c r="G8" s="56">
-        <f>G6*G9</f>
+        <f t="shared" si="1"/>
         <v>188415.54086934816</v>
       </c>
       <c r="H8" s="56">
-        <f>H6*H9</f>
+        <f t="shared" si="1"/>
         <v>243429.30216358046</v>
       </c>
       <c r="I8" s="56">
-        <f>I6*I9</f>
+        <f t="shared" si="1"/>
         <v>313529.14594649989</v>
       </c>
       <c r="J8" s="56">
-        <f>J6*J9</f>
+        <f t="shared" si="1"/>
         <v>401270.37774602743</v>
       </c>
       <c r="K8" s="56">
-        <f>K6*K9</f>
+        <f t="shared" si="1"/>
         <v>512055.21365091216</v>
       </c>
     </row>
@@ -14835,35 +14835,35 @@
         <v>9.3909717133225854</v>
       </c>
       <c r="D9" s="50">
-        <f>(C9*D10/100)*5+C9</f>
+        <f t="shared" ref="D9:K9" si="2">(C9*D10/100)*5+C9</f>
         <v>11.738714641653232</v>
       </c>
       <c r="E9" s="50">
-        <f>(D9*E10/100)*5+D9</f>
+        <f t="shared" si="2"/>
         <v>14.67339330206654</v>
       </c>
       <c r="F9" s="50">
-        <f>(E9*F10/100)*5+E9</f>
+        <f t="shared" si="2"/>
         <v>18.341741627583176</v>
       </c>
       <c r="G9" s="50">
-        <f>(F9*G10/100)*5+F9</f>
+        <f t="shared" si="2"/>
         <v>22.927177034478969</v>
       </c>
       <c r="H9" s="50">
-        <f>(G9*H10/100)*5+G9</f>
+        <f t="shared" si="2"/>
         <v>28.658971293098713</v>
       </c>
       <c r="I9" s="50">
-        <f>(H9*I10/100)*5+H9</f>
+        <f t="shared" si="2"/>
         <v>35.823714116373388</v>
       </c>
       <c r="J9" s="50">
-        <f>(I9*J10/100)*5+I9</f>
+        <f t="shared" si="2"/>
         <v>44.779642645466737</v>
       </c>
       <c r="K9" s="50">
-        <f>(J9*K10/100)*5+J9</f>
+        <f t="shared" si="2"/>
         <v>55.974553306833421</v>
       </c>
     </row>
@@ -14939,35 +14939,35 @@
         <v>0.67125897698959403</v>
       </c>
       <c r="D12" s="19">
-        <f>D11/D6*100</f>
+        <f t="shared" ref="D12:K12" si="3">D11/D6*100</f>
         <v>0.62575792319423262</v>
       </c>
       <c r="E12" s="19">
-        <f>E11/E6*100</f>
+        <f t="shared" si="3"/>
         <v>0.58683761552680225</v>
       </c>
       <c r="F12" s="19">
-        <f>F11/F6*100</f>
+        <f t="shared" si="3"/>
         <v>0.55113133611427134</v>
       </c>
       <c r="G12" s="19">
-        <f>G11/G6*100</f>
+        <f t="shared" si="3"/>
         <v>0.51890007003296601</v>
       </c>
       <c r="H12" s="19">
-        <f>H11/H6*100</f>
+        <f t="shared" si="3"/>
         <v>0.48928244408346661</v>
       </c>
       <c r="I12" s="19">
-        <f>I11/I6*100</f>
+        <f t="shared" si="3"/>
         <v>0.46055549889845637</v>
       </c>
       <c r="J12" s="19">
-        <f>J11/J6*100</f>
+        <f t="shared" si="3"/>
         <v>0.4342865091930796</v>
       </c>
       <c r="K12" s="19">
-        <f>K11/K6*100</f>
+        <f t="shared" si="3"/>
         <v>0.40946929036736762</v>
       </c>
     </row>
@@ -14979,35 +14979,35 @@
         <v>136.4</v>
       </c>
       <c r="D13" s="48">
-        <f>D11*D14</f>
+        <f t="shared" ref="D13:K13" si="4">D11*D14</f>
         <v>127.16104157514584</v>
       </c>
       <c r="E13" s="48">
-        <f>E11*E14</f>
+        <f t="shared" si="4"/>
         <v>169.56927016687033</v>
       </c>
       <c r="F13" s="48">
-        <f>F11*F14</f>
+        <f t="shared" si="4"/>
         <v>223.91598178953541</v>
       </c>
       <c r="G13" s="48">
-        <f>G11*G14</f>
+        <f t="shared" si="4"/>
         <v>283.52962832197142</v>
       </c>
       <c r="H13" s="48">
-        <f>H11*H14</f>
+        <f t="shared" si="4"/>
         <v>357.31705177238803</v>
       </c>
       <c r="I13" s="48">
-        <f>I11*I14</f>
+        <f t="shared" si="4"/>
         <v>447.63247391485135</v>
       </c>
       <c r="J13" s="48">
-        <f>J11*J14</f>
+        <f t="shared" si="4"/>
         <v>557.65219710051406</v>
       </c>
       <c r="K13" s="48">
-        <f>K11*K14</f>
+        <f t="shared" si="4"/>
         <v>670.94683188015938</v>
       </c>
     </row>
@@ -15020,35 +15020,35 @@
         <v>2.9792983324316809</v>
       </c>
       <c r="D14" s="50">
-        <f>D9*D15/100</f>
+        <f t="shared" ref="D14:K14" si="5">D9*D15/100</f>
         <v>2.8172915139967758</v>
       </c>
       <c r="E14" s="50">
-        <f>E9*E15/100</f>
+        <f t="shared" si="5"/>
         <v>3.8150822585373003</v>
       </c>
       <c r="F14" s="50">
-        <f>F9*F15/100</f>
+        <f t="shared" si="5"/>
         <v>5.1356876557232889</v>
       </c>
       <c r="G14" s="50">
-        <f>G9*G15/100</f>
+        <f t="shared" si="5"/>
         <v>6.6488813399989013</v>
       </c>
       <c r="H14" s="50">
-        <f>H9*H15/100</f>
+        <f t="shared" si="5"/>
         <v>8.5976913879296131</v>
       </c>
       <c r="I14" s="50">
-        <f>I9*I15/100</f>
+        <f t="shared" si="5"/>
         <v>11.105351376075751</v>
       </c>
       <c r="J14" s="50">
-        <f>J9*J15/100</f>
+        <f t="shared" si="5"/>
         <v>14.329485646549356</v>
       </c>
       <c r="K14" s="50">
-        <f>K9*K15/100</f>
+        <f t="shared" si="5"/>
         <v>17.911857058186694</v>
       </c>
     </row>
@@ -15093,35 +15093,35 @@
         <v>31.269164</v>
       </c>
       <c r="D16" s="48">
-        <f>D11*D17/100</f>
+        <f t="shared" ref="D16:K16" si="6">D11*D17/100</f>
         <v>30.968792152037004</v>
       </c>
       <c r="E16" s="48">
-        <f>E11*E17/100</f>
+        <f t="shared" si="6"/>
         <v>30.624038808999998</v>
       </c>
       <c r="F16" s="48">
-        <f>F11*F17/100</f>
+        <f t="shared" si="6"/>
         <v>30.607200000000002</v>
       </c>
       <c r="G16" s="48">
-        <f>G11*G17/100</f>
+        <f t="shared" si="6"/>
         <v>30.063461467492949</v>
       </c>
       <c r="H16" s="48">
-        <f>H11*H17/100</f>
+        <f t="shared" si="6"/>
         <v>29.424232766718351</v>
       </c>
       <c r="I16" s="48">
-        <f>I11*I17/100</f>
+        <f t="shared" si="6"/>
         <v>28.658858074414553</v>
       </c>
       <c r="J16" s="48">
-        <f>J11*J17/100</f>
+        <f t="shared" si="6"/>
         <v>27.786319659397392</v>
       </c>
       <c r="K16" s="48">
-        <f>K11*K17/100</f>
+        <f t="shared" si="6"/>
         <v>26.857565739572468</v>
       </c>
     </row>
@@ -15194,39 +15194,39 @@
         <v>62</v>
       </c>
       <c r="C19" s="45">
-        <f>C18/C11*100</f>
+        <f t="shared" ref="C19:K19" si="7">C18/C11*100</f>
         <v>3.5166204657001508E-2</v>
       </c>
       <c r="D19" s="45">
-        <f>D18/D11*100</f>
+        <f t="shared" si="7"/>
         <v>0.13606015200443797</v>
       </c>
       <c r="E19" s="45">
-        <f>E18/E11*100</f>
+        <f t="shared" si="7"/>
         <v>0.13816880348115548</v>
       </c>
       <c r="F19" s="45">
-        <f>F18/F11*100</f>
+        <f t="shared" si="7"/>
         <v>0.14085321100917431</v>
       </c>
       <c r="G19" s="45">
-        <f>G18/G11*100</f>
+        <f t="shared" si="7"/>
         <v>0.14401355627932119</v>
       </c>
       <c r="H19" s="45">
-        <f>H18/H11*100</f>
+        <f t="shared" si="7"/>
         <v>0.14776832532802597</v>
       </c>
       <c r="I19" s="45">
-        <f>I18/I11*100</f>
+        <f t="shared" si="7"/>
         <v>0.15235754295102694</v>
       </c>
       <c r="J19" s="45">
-        <f>J18/J11*100</f>
+        <f t="shared" si="7"/>
         <v>0.15780487857869463</v>
       </c>
       <c r="K19" s="45">
-        <f>K18/K11*100</f>
+        <f t="shared" si="7"/>
         <v>0.16394785896445477</v>
       </c>
     </row>
@@ -15283,35 +15283,35 @@
         <v>24.063663761108153</v>
       </c>
       <c r="D22" s="36">
-        <f>D21/D11*100</f>
+        <f t="shared" ref="D22:K22" si="8">D21/D11*100</f>
         <v>22.962807071680537</v>
       </c>
       <c r="E22" s="36">
-        <f>E21/E11*100</f>
+        <f t="shared" si="8"/>
         <v>21.970515904070282</v>
       </c>
       <c r="F22" s="36">
-        <f>F21/F11*100</f>
+        <f t="shared" si="8"/>
         <v>20.98835263961675</v>
       </c>
       <c r="G22" s="36">
-        <f>G21/G11*100</f>
+        <f t="shared" si="8"/>
         <v>20.399526048836019</v>
       </c>
       <c r="H22" s="36">
-        <f>H21/H11*100</f>
+        <f t="shared" si="8"/>
         <v>19.419810486565169</v>
       </c>
       <c r="I22" s="36">
-        <f>I21/I11*100</f>
+        <f t="shared" si="8"/>
         <v>18.308953277423676</v>
       </c>
       <c r="J22" s="36">
-        <f>J21/J11*100</f>
+        <f t="shared" si="8"/>
         <v>18.012679044235554</v>
       </c>
       <c r="K22" s="36">
-        <f>K21/K11*100</f>
+        <f t="shared" si="8"/>
         <v>18.447630819906706</v>
       </c>
     </row>
@@ -15368,35 +15368,35 @@
         <v>17.651088868013414</v>
       </c>
       <c r="D25" s="27">
-        <f>D24/D11*100</f>
+        <f t="shared" ref="D25:K25" si="9">D24/D11*100</f>
         <v>17.752406902360846</v>
       </c>
       <c r="E25" s="27">
-        <f>E24/E11*100</f>
+        <f t="shared" si="9"/>
         <v>18.752930029308338</v>
       </c>
       <c r="F25" s="27">
-        <f>F24/F11*100</f>
+        <f t="shared" si="9"/>
         <v>19.264729968636352</v>
       </c>
       <c r="G25" s="27">
-        <f>G24/G11*100</f>
+        <f t="shared" si="9"/>
         <v>18.655594444645459</v>
       </c>
       <c r="H25" s="27">
-        <f>H24/H11*100</f>
+        <f t="shared" si="9"/>
         <v>17.96391732117166</v>
       </c>
       <c r="I25" s="27">
-        <f>I24/I11*100</f>
+        <f t="shared" si="9"/>
         <v>17.325836871460389</v>
       </c>
       <c r="J25" s="27">
-        <f>J24/J11*100</f>
+        <f t="shared" si="9"/>
         <v>16.735475563322179</v>
       </c>
       <c r="K25" s="27">
-        <f>K24/K11*100</f>
+        <f t="shared" si="9"/>
         <v>16.269463150263302</v>
       </c>
     </row>
@@ -15405,39 +15405,39 @@
         <v>57</v>
       </c>
       <c r="C26" s="27">
-        <f>C24/C21</f>
+        <f t="shared" ref="C26:K26" si="10">C24/C21</f>
         <v>0.73351626931145941</v>
       </c>
       <c r="D26" s="27">
-        <f>D24/D21</f>
+        <f t="shared" si="10"/>
         <v>0.77309393607432475</v>
       </c>
       <c r="E26" s="27">
-        <f>E24/E21</f>
+        <f t="shared" si="10"/>
         <v>0.85354982610281571</v>
       </c>
       <c r="F26" s="27">
-        <f>F24/F21</f>
+        <f t="shared" si="10"/>
         <v>0.917877181664703</v>
       </c>
       <c r="G26" s="27">
-        <f>G24/G21</f>
+        <f t="shared" si="10"/>
         <v>0.91451117050388187</v>
       </c>
       <c r="H26" s="27">
-        <f>H24/H21</f>
+        <f t="shared" si="10"/>
         <v>0.92503051631730859</v>
       </c>
       <c r="I26" s="27">
-        <f>I24/I21</f>
+        <f t="shared" si="10"/>
         <v>0.9463040627682664</v>
       </c>
       <c r="J26" s="27">
-        <f>J24/J21</f>
+        <f t="shared" si="10"/>
         <v>0.9290941964947681</v>
       </c>
       <c r="K26" s="27">
-        <f>K24/K21</f>
+        <f t="shared" si="10"/>
         <v>0.8819269698690545</v>
       </c>
     </row>
@@ -15454,31 +15454,31 @@
         <v>0.47676580399999996</v>
       </c>
       <c r="E27" s="29">
-        <f>E21*E28/1000*0.9938</f>
+        <f t="shared" ref="E27:K27" si="11">E21*E28/1000*0.9938</f>
         <v>0.44641658784440003</v>
       </c>
       <c r="F27" s="29">
-        <f>F21*F28/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.41833255765680466</v>
       </c>
       <c r="G27" s="29">
-        <f>G21*G28/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.3976736063081891</v>
       </c>
       <c r="H27" s="29">
-        <f>H21*H28/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.36895525581195926</v>
       </c>
       <c r="I27" s="29">
-        <f>I21*I28/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.33737245505184571</v>
       </c>
       <c r="J27" s="29">
-        <f>J21*J28/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.32045566292975336</v>
       </c>
       <c r="K27" s="29">
-        <f>K21*K28/1000*0.9938</f>
+        <f t="shared" si="11"/>
         <v>0.31589657311346753</v>
       </c>
     </row>
@@ -15568,35 +15568,35 @@
         <v>38.949275742186025</v>
       </c>
       <c r="D31" s="21">
-        <f>D30/D11*100</f>
+        <f t="shared" ref="D31:K31" si="12">D30/D11*100</f>
         <v>38.759313219214384</v>
       </c>
       <c r="E31" s="21">
-        <f>E30/E11*100</f>
+        <f t="shared" si="12"/>
         <v>37.151675467317197</v>
       </c>
       <c r="F31" s="21">
-        <f>F30/F11*100</f>
+        <f t="shared" si="12"/>
         <v>35.71202430204908</v>
       </c>
       <c r="G31" s="21">
-        <f>G30/G11*100</f>
+        <f t="shared" si="12"/>
         <v>36.184395748768758</v>
       </c>
       <c r="H31" s="21">
-        <f>H30/H11*100</f>
+        <f t="shared" si="12"/>
         <v>36.910903957801409</v>
       </c>
       <c r="I31" s="21">
-        <f>I30/I11*100</f>
+        <f t="shared" si="12"/>
         <v>37.303043811995998</v>
       </c>
       <c r="J31" s="21">
-        <f>J30/J11*100</f>
+        <f t="shared" si="12"/>
         <v>35.992491273903454</v>
       </c>
       <c r="K31" s="21">
-        <f>K30/K11*100</f>
+        <f t="shared" si="12"/>
         <v>33.109126149849345</v>
       </c>
     </row>
@@ -15654,35 +15654,35 @@
         <v>20.224890829694324</v>
       </c>
       <c r="D34" s="10">
-        <f>D33/D11*100</f>
+        <f t="shared" ref="D34:K34" si="13">D33/D11*100</f>
         <v>20.525471412201423</v>
       </c>
       <c r="E34" s="10">
-        <f>E33/E11*100</f>
+        <f t="shared" si="13"/>
         <v>22.124876996984348</v>
       </c>
       <c r="F34" s="10">
-        <f>F33/F11*100</f>
+        <f t="shared" si="13"/>
         <v>24.057309584514357</v>
       </c>
       <c r="G34" s="10">
-        <f>G33/G11*100</f>
+        <f t="shared" si="13"/>
         <v>24.760483757749768</v>
       </c>
       <c r="H34" s="10">
-        <f>H33/H11*100</f>
+        <f t="shared" si="13"/>
         <v>25.705368234461762</v>
       </c>
       <c r="I34" s="10">
-        <f>I33/I11*100</f>
+        <f t="shared" si="13"/>
         <v>27.062166039119916</v>
       </c>
       <c r="J34" s="10">
-        <f>J33/J11*100</f>
+        <f t="shared" si="13"/>
         <v>29.259354118538823</v>
       </c>
       <c r="K34" s="10">
-        <f>K33/K11*100</f>
+        <f t="shared" si="13"/>
         <v>32.173779879980643</v>
       </c>
     </row>
@@ -15695,35 +15695,35 @@
         <v>0.69589539840000003</v>
       </c>
       <c r="D35" s="12">
-        <f>D36/1000*D11</f>
+        <f t="shared" ref="D35:K35" si="14">D36/1000*D11</f>
         <v>0.65898441740000002</v>
       </c>
       <c r="E35" s="12">
-        <f>E36/1000*E11</f>
+        <f t="shared" si="14"/>
         <v>0.64892738259999994</v>
       </c>
       <c r="F35" s="12">
-        <f>F36/1000*F11</f>
+        <f t="shared" si="14"/>
         <v>0.63656000000000001</v>
       </c>
       <c r="G35" s="12">
-        <f>G36/1000*G11</f>
+        <f t="shared" si="14"/>
         <v>0.62259083322751363</v>
       </c>
       <c r="H35" s="12">
-        <f>H36/1000*H11</f>
+        <f t="shared" si="14"/>
         <v>0.60677090168656489</v>
       </c>
       <c r="I35" s="12">
-        <f>I36/1000*I11</f>
+        <f t="shared" si="14"/>
         <v>0.58849413204845635</v>
       </c>
       <c r="J35" s="12">
-        <f>J36/1000*J11</f>
+        <f t="shared" si="14"/>
         <v>0.56817964569636115</v>
       </c>
       <c r="K35" s="12">
-        <f>K36/1000*K11</f>
+        <f t="shared" si="14"/>
         <v>0.54689045996897911</v>
       </c>
     </row>
@@ -15735,35 +15735,35 @@
         <v>19.335971628692409</v>
       </c>
       <c r="D36" s="9">
-        <f>14.6</f>
+        <f t="shared" ref="D36:K36" si="15">14.6</f>
         <v>14.6</v>
       </c>
       <c r="E36" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="F36" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="G36" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="H36" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="I36" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="J36" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
       <c r="K36" s="9">
-        <f>14.6</f>
+        <f t="shared" si="15"/>
         <v>14.6</v>
       </c>
     </row>
